--- a/relevel/1. Excel/Class-Exercise-2.xlsx
+++ b/relevel/1. Excel/Class-Exercise-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\neosoft-office-learning\relevel\1. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\relevel\1. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="272">
   <si>
     <t>Sales Person</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>Week4</t>
+  </si>
+  <si>
+    <t>Interest Amount</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,6 +1406,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,11 +1429,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,14 +1444,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,7 +2816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2823,12 +2833,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2873,7 +2883,10 @@
       <c r="D4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="38" t="b">
+        <f>B4=C4</f>
+        <v>1</v>
+      </c>
       <c r="G4" s="18" t="s">
         <v>120</v>
       </c>
@@ -2883,7 +2896,10 @@
       <c r="I4" s="9">
         <v>45</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="39" t="b">
+        <f>H4=I4</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="40" t="s">
         <v>119</v>
       </c>
@@ -2901,7 +2917,10 @@
       <c r="D5" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="41" t="b">
+        <f>B5&lt;&gt;C5</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="18" t="s">
         <v>123</v>
       </c>
@@ -2911,7 +2930,10 @@
       <c r="I5" s="9">
         <v>45</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="42" t="b">
+        <f>H5&lt;&gt;I5</f>
+        <v>1</v>
+      </c>
       <c r="K5" s="40" t="s">
         <v>122</v>
       </c>
@@ -2929,7 +2951,10 @@
       <c r="D6" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="41" t="b">
+        <f>B6&gt;C6</f>
+        <v>1</v>
+      </c>
       <c r="G6" s="18" t="s">
         <v>126</v>
       </c>
@@ -2939,7 +2964,10 @@
       <c r="I6" s="9">
         <v>45</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="42" t="b">
+        <f>H6&gt;I6</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="40" t="s">
         <v>125</v>
       </c>
@@ -2957,7 +2985,10 @@
       <c r="D7" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="41" t="b">
+        <f>B7&lt;C7</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="18" t="s">
         <v>129</v>
       </c>
@@ -2967,7 +2998,10 @@
       <c r="I7" s="9">
         <v>45</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="42" t="b">
+        <f>H7&gt;=I7</f>
+        <v>0</v>
+      </c>
       <c r="K7" s="40" t="s">
         <v>130</v>
       </c>
@@ -2985,7 +3019,10 @@
       <c r="D8" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="41" t="b">
+        <f>B8&gt;=C8</f>
+        <v>0</v>
+      </c>
       <c r="G8" s="18" t="s">
         <v>132</v>
       </c>
@@ -2995,7 +3032,10 @@
       <c r="I8" s="9">
         <v>45</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="42" t="b">
+        <f>H8&lt;I8</f>
+        <v>1</v>
+      </c>
       <c r="K8" s="40" t="s">
         <v>128</v>
       </c>
@@ -3013,7 +3053,10 @@
       <c r="D9" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="41" t="b">
+        <f>B9&lt;=C9</f>
+        <v>1</v>
+      </c>
       <c r="G9" s="18" t="s">
         <v>135</v>
       </c>
@@ -3023,7 +3066,10 @@
       <c r="I9" s="9">
         <v>45</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="42" t="b">
+        <f>H9&lt;=I9</f>
+        <v>1</v>
+      </c>
       <c r="K9" s="40" t="s">
         <v>134</v>
       </c>
@@ -3035,12 +3081,12 @@
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
@@ -3071,50 +3117,104 @@
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
         <f t="shared" ref="B15:B50" ca="1" si="0">RANDBETWEEN(4,89)</f>
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C15" s="35">
         <f t="shared" ref="C15:C50" ca="1" si="1">RANDBETWEEN(5,90)</f>
-        <v>79</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="D15" s="38" t="b">
+        <f ca="1">B15=C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="43" t="b">
+        <f ca="1">B15&lt;&gt;C15</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="44" t="b">
+        <f ca="1">B15&gt;C15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="44" t="b">
+        <f ca="1">B15&lt;C15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="44" t="b">
+        <f ca="1">B15&gt;=C15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="44" t="b">
+        <f ca="1">B15&lt;=C15</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="38" t="b">
+        <f t="shared" ref="D16:D50" ca="1" si="2">B16=C16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="43" t="b">
+        <f t="shared" ref="E16:E50" ca="1" si="3">B16&lt;&gt;C16</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="44" t="b">
+        <f t="shared" ref="F16:F50" ca="1" si="4">B16&gt;C16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="b">
+        <f t="shared" ref="G16:G50" ca="1" si="5">B16&lt;C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="44" t="b">
+        <f t="shared" ref="H16:H50" ca="1" si="6">B16&gt;=C16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="44" t="b">
+        <f t="shared" ref="I16:I50" ca="1" si="7">B16&lt;=C16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C17" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="35">
@@ -3123,526 +3223,1120 @@
       </c>
       <c r="C18" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="D18" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C19" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="D19" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C20" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+        <v>11</v>
+      </c>
+      <c r="D20" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C21" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="D21" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C22" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="D22" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C23" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C24" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+        <v>79</v>
+      </c>
+      <c r="D24" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C25" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="D25" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C26" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+        <v>16</v>
+      </c>
+      <c r="D26" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C27" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+        <v>38</v>
+      </c>
+      <c r="D27" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C28" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="D28" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="D29" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C30" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C31" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+        <v>90</v>
+      </c>
+      <c r="D31" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C32" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
+        <v>54</v>
+      </c>
+      <c r="D32" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C33" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C34" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
+        <v>34</v>
+      </c>
+      <c r="D34" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C35" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+        <v>44</v>
+      </c>
+      <c r="D35" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+        <v>90</v>
+      </c>
+      <c r="D36" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+        <v>44</v>
+      </c>
+      <c r="D37" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
+        <v>71</v>
+      </c>
+      <c r="D38" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C39" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
+        <v>65</v>
+      </c>
+      <c r="D39" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C40" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="D40" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C41" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="D41" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C42" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
+        <v>49</v>
+      </c>
+      <c r="D42" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C43" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
+        <v>14</v>
+      </c>
+      <c r="D43" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C44" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="D44" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C45" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
+        <v>56</v>
+      </c>
+      <c r="D45" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C46" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="D46" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="D47" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C48" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="D48" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C49" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="D49" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C50" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
+        <v>47</v>
+      </c>
+      <c r="D50" s="38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="44" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="44" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="44" t="b">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="44" t="b">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4608,7 +5302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4623,14 +5319,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4680,7 +5376,10 @@
       <c r="B14" s="15">
         <v>98</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="str">
+        <f>IF(B14&gt;=60,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -4689,7 +5388,10 @@
       <c r="B15" s="15">
         <v>55</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="str">
+        <f t="shared" ref="C15:C17" si="0">IF(B15&gt;=60,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -4698,7 +5400,10 @@
       <c r="B16" s="15">
         <v>15</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -4707,7 +5412,10 @@
       <c r="B17" s="15">
         <v>60</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4764,7 +5472,10 @@
       <c r="C28" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15" t="str">
+        <f>IF(B28=C28,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -4776,7 +5487,10 @@
       <c r="C29" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15" t="str">
+        <f t="shared" ref="D29:D31" si="1">IF(B29=C29,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
@@ -4788,7 +5502,10 @@
       <c r="C30" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
@@ -4800,7 +5517,10 @@
       <c r="C31" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4843,8 +5563,8 @@
       <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -4852,8 +5572,8 @@
       <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
       <c r="E42" s="47"/>
@@ -4861,8 +5581,8 @@
       <c r="G42" s="47"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
       <c r="E43" s="49" t="s">
@@ -4903,8 +5623,14 @@
       <c r="D45" s="15">
         <v>16</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
+      <c r="E45" s="52" t="str">
+        <f>IF(D45&gt;=16,"Eligible","Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="F45" s="52" t="str">
+        <f>IF(D45&gt;=18,"Adult","Minor")</f>
+        <v>Minor</v>
+      </c>
       <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4918,8 +5644,14 @@
       <c r="D46" s="15">
         <v>18</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="52" t="str">
+        <f t="shared" ref="E46:E52" si="2">IF(D46&gt;=16,"Eligible","Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="F46" s="52" t="str">
+        <f t="shared" ref="F46:F52" si="3">IF(D46&gt;=18,"Adult","Minor")</f>
+        <v>Adult</v>
+      </c>
       <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,8 +5665,14 @@
       <c r="D47" s="15">
         <v>15.5</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
+      <c r="E47" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>Not Eligible</v>
+      </c>
+      <c r="F47" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Minor</v>
+      </c>
       <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4948,8 +5686,14 @@
       <c r="D48" s="15">
         <v>19</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
+      <c r="E48" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F48" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Adult</v>
+      </c>
       <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4963,8 +5707,14 @@
       <c r="D49" s="15">
         <v>18</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="E49" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F49" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Adult</v>
+      </c>
       <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4978,8 +5728,14 @@
       <c r="D50" s="15">
         <v>13</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
+      <c r="E50" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>Not Eligible</v>
+      </c>
+      <c r="F50" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Minor</v>
+      </c>
       <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,8 +5749,14 @@
       <c r="D51" s="15">
         <v>18</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
+      <c r="E51" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F51" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Adult</v>
+      </c>
       <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,13 +5770,19 @@
       <c r="D52" s="15">
         <v>17</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
+      <c r="E52" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
+      <c r="F52" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Minor</v>
+      </c>
       <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="93"/>
-      <c r="B53" s="92"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
@@ -5134,8 +5902,18 @@
       <c r="C69" s="15">
         <v>46866</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="47"/>
+      <c r="D69" s="53">
+        <f>IF(B69=$A$62,C69*$B$62,C69*$B$63)</f>
+        <v>46866</v>
+      </c>
+      <c r="E69" s="47">
+        <f>IF(B69=$A$62,C69*100%,C69*50%)</f>
+        <v>46866</v>
+      </c>
+      <c r="F69">
+        <f>IF(B69=$A$62,C69*100/100,C69*50/100)</f>
+        <v>46866</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
@@ -5147,8 +5925,18 @@
       <c r="C70" s="15">
         <v>33495</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="47"/>
+      <c r="D70" s="53">
+        <f t="shared" ref="D70:D75" si="4">IF(B70=$A$62,C70*$B$62,C70*$B$63)</f>
+        <v>16747.5</v>
+      </c>
+      <c r="E70" s="80">
+        <f t="shared" ref="E70:E75" si="5">IF(B70=$A$62,C70*100%,C70*50%)</f>
+        <v>16747.5</v>
+      </c>
+      <c r="F70" s="79">
+        <f t="shared" ref="F70:F75" si="6">IF(B70=$A$62,C70*100/100,C70*50/100)</f>
+        <v>16747.5</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
@@ -5160,8 +5948,18 @@
       <c r="C71" s="15">
         <v>35087</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="47"/>
+      <c r="D71" s="53">
+        <f t="shared" si="4"/>
+        <v>17543.5</v>
+      </c>
+      <c r="E71" s="80">
+        <f t="shared" si="5"/>
+        <v>17543.5</v>
+      </c>
+      <c r="F71" s="79">
+        <f t="shared" si="6"/>
+        <v>17543.5</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
@@ -5173,8 +5971,18 @@
       <c r="C72" s="15">
         <v>42603</v>
       </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="47"/>
+      <c r="D72" s="53">
+        <f t="shared" si="4"/>
+        <v>42603</v>
+      </c>
+      <c r="E72" s="80">
+        <f t="shared" si="5"/>
+        <v>42603</v>
+      </c>
+      <c r="F72" s="79">
+        <f t="shared" si="6"/>
+        <v>42603</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
@@ -5186,8 +5994,18 @@
       <c r="C73" s="15">
         <v>36971</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="47"/>
+      <c r="D73" s="53">
+        <f t="shared" si="4"/>
+        <v>18485.5</v>
+      </c>
+      <c r="E73" s="80">
+        <f t="shared" si="5"/>
+        <v>18485.5</v>
+      </c>
+      <c r="F73" s="79">
+        <f t="shared" si="6"/>
+        <v>18485.5</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
@@ -5199,8 +6017,18 @@
       <c r="C74" s="15">
         <v>41286</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="47"/>
+      <c r="D74" s="53">
+        <f t="shared" si="4"/>
+        <v>41286</v>
+      </c>
+      <c r="E74" s="80">
+        <f t="shared" si="5"/>
+        <v>41286</v>
+      </c>
+      <c r="F74" s="79">
+        <f t="shared" si="6"/>
+        <v>41286</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
@@ -5212,28 +6040,38 @@
       <c r="C75" s="15">
         <v>37732</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="47"/>
+      <c r="D75" s="53">
+        <f t="shared" si="4"/>
+        <v>18866</v>
+      </c>
+      <c r="E75" s="80">
+        <f t="shared" si="5"/>
+        <v>18866</v>
+      </c>
+      <c r="F75" s="79">
+        <f t="shared" si="6"/>
+        <v>18866</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5246,7 +6084,9 @@
       <c r="C82" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="56"/>
+      <c r="D82" s="54" t="s">
+        <v>271</v>
+      </c>
       <c r="E82" s="56"/>
       <c r="F82" s="56"/>
       <c r="G82" s="56"/>
@@ -5255,8 +6095,18 @@
       <c r="A83" s="57">
         <v>62900</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="58"/>
+      <c r="B83" s="57" t="str">
+        <f>IF(A83&gt;=$F$86,"Hight Rate","Low Rate")</f>
+        <v>Low Rate</v>
+      </c>
+      <c r="C83" s="58">
+        <f>IF(B83=$E$88,$F$88,$F$87)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D83" s="58">
+        <f>A83*C83</f>
+        <v>3145</v>
+      </c>
       <c r="E83" s="10" t="s">
         <v>214</v>
       </c>
@@ -5265,8 +6115,18 @@
       <c r="A84" s="57">
         <v>13005</v>
       </c>
-      <c r="B84" s="57"/>
-      <c r="C84" s="58"/>
+      <c r="B84" s="57" t="str">
+        <f t="shared" ref="B84:B92" si="7">IF(A84&gt;=$F$86,"Hight Rate","Low Rate")</f>
+        <v>Low Rate</v>
+      </c>
+      <c r="C84" s="58">
+        <f t="shared" ref="C84:D92" si="8">IF(B84=$E$88,$F$88,$F$87)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D84" s="58">
+        <f t="shared" ref="D84:D92" si="9">A84*C84</f>
+        <v>650.25</v>
+      </c>
       <c r="E84" s="10" t="s">
         <v>215</v>
       </c>
@@ -5275,15 +6135,35 @@
       <c r="A85" s="57">
         <v>87000</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="58"/>
+      <c r="B85" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Hight Rate</v>
+      </c>
+      <c r="C85" s="58">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D85" s="58">
+        <f t="shared" si="9"/>
+        <v>6525</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="57">
         <v>54500</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="58"/>
+      <c r="B86" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Low Rate</v>
+      </c>
+      <c r="C86" s="58">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="D86" s="58">
+        <f t="shared" si="9"/>
+        <v>2725</v>
+      </c>
       <c r="E86" s="10" t="s">
         <v>216</v>
       </c>
@@ -5295,8 +6175,18 @@
       <c r="A87" s="57">
         <v>94500</v>
       </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="58"/>
+      <c r="B87" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Hight Rate</v>
+      </c>
+      <c r="C87" s="58">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D87" s="58">
+        <f t="shared" si="9"/>
+        <v>7087.5</v>
+      </c>
       <c r="E87" s="10" t="s">
         <v>217</v>
       </c>
@@ -5308,8 +6198,18 @@
       <c r="A88" s="57">
         <v>120500</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
+      <c r="B88" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Hight Rate</v>
+      </c>
+      <c r="C88" s="58">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D88" s="58">
+        <f t="shared" si="9"/>
+        <v>9037.5</v>
+      </c>
       <c r="E88" s="10" t="s">
         <v>218</v>
       </c>
@@ -5321,15 +6221,35 @@
       <c r="A89" s="57">
         <v>85000</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
+      <c r="B89" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Hight Rate</v>
+      </c>
+      <c r="C89" s="58">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D89" s="58">
+        <f t="shared" si="9"/>
+        <v>6375</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57">
         <v>33400</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="58"/>
+      <c r="B90" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Low Rate</v>
+      </c>
+      <c r="C90" s="58">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="D90" s="58">
+        <f t="shared" si="9"/>
+        <v>1670</v>
+      </c>
       <c r="E90" s="10" t="s">
         <v>219</v>
       </c>
@@ -5338,8 +6258,18 @@
       <c r="A91" s="57">
         <v>17000</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="58"/>
+      <c r="B91" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Low Rate</v>
+      </c>
+      <c r="C91" s="58">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="D91" s="58">
+        <f t="shared" si="9"/>
+        <v>850</v>
+      </c>
       <c r="E91" s="10" t="s">
         <v>220</v>
       </c>
@@ -5348,8 +6278,18 @@
       <c r="A92" s="57">
         <v>107900</v>
       </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
+      <c r="B92" s="57" t="str">
+        <f t="shared" si="7"/>
+        <v>Hight Rate</v>
+      </c>
+      <c r="C92" s="58">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D92" s="58">
+        <f t="shared" si="9"/>
+        <v>8092.5</v>
+      </c>
       <c r="F92" s="62"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5358,11 +6298,11 @@
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="87" t="s">
+      <c r="A96" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5387,11 +6327,11 @@
         <v>62900</v>
       </c>
       <c r="B100" s="57" t="e">
-        <f t="shared" ref="B100:B109" si="0">IF(A100&gt;=Threshold,A100*High_Rate,A100*Low_Rate)</f>
+        <f t="shared" ref="B100:B109" si="10">IF(A100&gt;=Threshold,A100*High_Rate,A100*Low_Rate)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C100" s="58" t="str">
-        <f t="shared" ref="C100:C109" si="1">IF(A100&gt;=Threshold,"High_Rate","Low_Rate")</f>
+        <f t="shared" ref="C100:C109" si="11">IF(A100&gt;=Threshold,"High_Rate","Low_Rate")</f>
         <v>Low_Rate</v>
       </c>
       <c r="E100" s="10" t="s">
@@ -5403,11 +6343,11 @@
         <v>13005</v>
       </c>
       <c r="B101" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C101" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="E101" s="10" t="s">
@@ -5419,11 +6359,11 @@
         <v>87000</v>
       </c>
       <c r="B102" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C102" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
     </row>
@@ -5432,11 +6372,11 @@
         <v>54500</v>
       </c>
       <c r="B103" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C103" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -5451,11 +6391,11 @@
         <v>94500</v>
       </c>
       <c r="B104" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C104" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="E104" s="10" t="s">
@@ -5470,11 +6410,11 @@
         <v>120500</v>
       </c>
       <c r="B105" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="E105" s="10" t="s">
@@ -5489,11 +6429,11 @@
         <v>85000</v>
       </c>
       <c r="B106" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C106" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
     </row>
@@ -5502,11 +6442,11 @@
         <v>33400</v>
       </c>
       <c r="B107" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C107" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="E107" s="10" t="s">
@@ -5518,11 +6458,11 @@
         <v>17000</v>
       </c>
       <c r="B108" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C108" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="E108" s="10" t="s">
@@ -5534,11 +6474,11 @@
         <v>107900</v>
       </c>
       <c r="B109" s="57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="C109" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Low_Rate</v>
       </c>
       <c r="F109" s="62"/>
@@ -5551,14 +6491,14 @@
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="89" t="s">
+      <c r="A115" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="83"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="84"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="86"/>
+      <c r="F115" s="87"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5601,21 +6541,32 @@
       <c r="D120" s="19">
         <v>600</v>
       </c>
-      <c r="E120" s="19"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E120" s="19" t="b">
+        <f>AND(D120&gt;A120,D120&lt;B120)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>250</v>
+      </c>
+      <c r="E121" s="19" t="b">
+        <f>AND(D121&gt;A121,D121&lt;B121)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="89" t="s">
+      <c r="A125" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="84"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="86"/>
+      <c r="F125" s="87"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5656,22 +6607,25 @@
         <v>228</v>
       </c>
       <c r="D130" s="19">
-        <v>600</v>
-      </c>
-      <c r="E130" s="19"/>
+        <v>400</v>
+      </c>
+      <c r="E130" s="19" t="b">
+        <f>OR(D130&gt;A130,D130&lt;B130)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="89" t="s">
+      <c r="A134" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="B134" s="83"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="83"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="84"/>
+      <c r="B134" s="86"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="86"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="87"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,7 +6657,10 @@
       <c r="C138" s="19">
         <v>3</v>
       </c>
-      <c r="D138" s="66"/>
+      <c r="D138" s="99">
+        <f>IFERROR(B138/C138,"First year")</f>
+        <v>71311.666666666672</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
@@ -5715,7 +6672,10 @@
       <c r="C139" s="19">
         <v>6</v>
       </c>
-      <c r="D139" s="66"/>
+      <c r="D139" s="99">
+        <f t="shared" ref="D139:D142" si="12">IFERROR(B139/C139,"First year")</f>
+        <v>72972.333333333328</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
@@ -5727,7 +6687,10 @@
       <c r="C140" s="19">
         <v>0</v>
       </c>
-      <c r="D140" s="66"/>
+      <c r="D140" s="99" t="str">
+        <f t="shared" si="12"/>
+        <v>First year</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
@@ -5739,7 +6702,10 @@
       <c r="C141" s="19">
         <v>2</v>
       </c>
-      <c r="D141" s="66"/>
+      <c r="D141" s="99">
+        <f t="shared" si="12"/>
+        <v>140021.5</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
@@ -5751,7 +6717,10 @@
       <c r="C142" s="19">
         <v>0</v>
       </c>
-      <c r="D142" s="66"/>
+      <c r="D142" s="99" t="str">
+        <f t="shared" si="12"/>
+        <v>First year</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5807,7 +6776,7 @@
         <v>247</v>
       </c>
       <c r="E152" s="73" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,7 +6789,10 @@
       <c r="C153" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E153" s="74"/>
+      <c r="E153" s="74" t="str">
+        <f>IFERROR(VLOOKUP(E152,A151:B157,2,FALSE),"Out of Stock")</f>
+        <v>Out of Stock</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
@@ -5879,12 +6851,12 @@
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="90"/>
-      <c r="B162" s="83"/>
-      <c r="C162" s="83"/>
-      <c r="D162" s="83"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="84"/>
+      <c r="A162" s="93"/>
+      <c r="B162" s="86"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="86"/>
+      <c r="F162" s="87"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6726,6 +7698,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A162:F162"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="A2:F2"/>
@@ -6733,14 +7710,9 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A162:F162"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Item" sqref="E152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152">
       <formula1>$C$152:$C$159</formula1>
     </dataValidation>
   </dataValidations>
@@ -6874,12 +7846,12 @@
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13626,34 +14598,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="H1" s="79" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="H1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="O1" s="79" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="O1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="V1" s="79" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="V1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15251,13 +16223,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -15409,7 +16381,7 @@
       </c>
       <c r="N7" s="15">
         <f t="shared" ref="N7:N18" ca="1" si="1">RANDBETWEEN(101,106)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="19"/>
@@ -15440,7 +16412,7 @@
       </c>
       <c r="N8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="19"/>
@@ -15473,7 +16445,7 @@
       </c>
       <c r="N9" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="19"/>
@@ -15490,7 +16462,7 @@
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="19"/>
@@ -15507,7 +16479,7 @@
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="19"/>
@@ -15524,7 +16496,7 @@
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N12" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="19"/>
@@ -15541,7 +16513,7 @@
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="19"/>
@@ -15556,16 +16528,16 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
       <c r="N14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="19"/>
@@ -15603,7 +16575,7 @@
       </c>
       <c r="N15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="19"/>
@@ -15665,7 +16637,7 @@
       </c>
       <c r="N17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="19"/>
@@ -15689,7 +16661,7 @@
       </c>
       <c r="N18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="19"/>
@@ -15771,13 +16743,13 @@
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
@@ -15951,13 +16923,13 @@
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="87"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
@@ -16020,16 +16992,16 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="87"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
@@ -17168,7 +18140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -17315,7 +18287,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" ref="J5:K7" si="2">ROUND(VLOOKUP(G5,A2:E9,4,FALSE),0)</f>
+        <f t="shared" ref="J5:J7" si="2">ROUND(VLOOKUP(G5,A2:E9,4,FALSE),0)</f>
         <v>25</v>
       </c>
       <c r="K5" s="15">
@@ -17418,13 +18390,13 @@
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
@@ -17582,13 +18554,13 @@
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -17615,7 +18587,7 @@
       <c r="K27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="96" t="s">
+      <c r="L27" s="81" t="s">
         <v>70</v>
       </c>
     </row>
@@ -17737,13 +18709,13 @@
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="29"/>
